--- a/config_debug/fish_2d_fish_sever.xlsx
+++ b/config_debug/fish_2d_fish_sever.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="box_fish_award" sheetId="9" r:id="rId9"/>
     <sheet name="summon_fish" sheetId="10" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -915,640 +912,640 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fish_form|鱼组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>90,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>32,</t>
+  </si>
+  <si>
+    <t>33,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>35,</t>
+  </si>
+  <si>
+    <t>36,</t>
+  </si>
+  <si>
+    <t>37,</t>
+  </si>
+  <si>
+    <t>38,</t>
+  </si>
+  <si>
+    <t>39,</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>41,</t>
+  </si>
+  <si>
+    <t>42,</t>
+  </si>
+  <si>
+    <t>43,</t>
+  </si>
+  <si>
+    <t>44,</t>
+  </si>
+  <si>
+    <t>45,</t>
+  </si>
+  <si>
+    <t>46,</t>
+  </si>
+  <si>
+    <t>47,</t>
+  </si>
+  <si>
+    <t>48,</t>
+  </si>
+  <si>
+    <t>49,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>51,</t>
+  </si>
+  <si>
+    <t>52,</t>
+  </si>
+  <si>
+    <t>53,</t>
+  </si>
+  <si>
+    <t>54,</t>
+  </si>
+  <si>
+    <t>55,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>57,</t>
+  </si>
+  <si>
+    <t>58,</t>
+  </si>
+  <si>
+    <t>59,</t>
+  </si>
+  <si>
+    <t>60,</t>
+  </si>
+  <si>
+    <t>61,</t>
+  </si>
+  <si>
+    <t>62,</t>
+  </si>
+  <si>
+    <t>63,</t>
+  </si>
+  <si>
+    <t>64,</t>
+  </si>
+  <si>
+    <t>65,</t>
+  </si>
+  <si>
+    <t>66,</t>
+  </si>
+  <si>
+    <t>67,</t>
+  </si>
+  <si>
+    <t>68,</t>
+  </si>
+  <si>
+    <t>69,</t>
+  </si>
+  <si>
+    <t>70,</t>
+  </si>
+  <si>
+    <t>71,</t>
+  </si>
+  <si>
+    <t>72,</t>
+  </si>
+  <si>
+    <t>73,</t>
+  </si>
+  <si>
+    <t>74,</t>
+  </si>
+  <si>
+    <t>75,</t>
+  </si>
+  <si>
+    <t>76,</t>
+  </si>
+  <si>
+    <t>77,</t>
+  </si>
+  <si>
+    <t>78,</t>
+  </si>
+  <si>
+    <t>79,</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>81,</t>
+  </si>
+  <si>
+    <t>82,</t>
+  </si>
+  <si>
+    <t>83,</t>
+  </si>
+  <si>
+    <t>84,</t>
+  </si>
+  <si>
+    <t>85,</t>
+  </si>
+  <si>
+    <t>86,</t>
+  </si>
+  <si>
+    <t>87,</t>
+  </si>
+  <si>
+    <t>88,</t>
+  </si>
+  <si>
+    <t>89,</t>
+  </si>
+  <si>
+    <t>90,</t>
+  </si>
+  <si>
+    <t>91,</t>
+  </si>
+  <si>
+    <t>92,</t>
+  </si>
+  <si>
+    <t>93,</t>
+  </si>
+  <si>
+    <t>94,</t>
+  </si>
+  <si>
+    <t>95,</t>
+  </si>
+  <si>
+    <t>96,</t>
+  </si>
+  <si>
+    <t>97,</t>
+  </si>
+  <si>
+    <t>98,</t>
+  </si>
+  <si>
+    <t>99,</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>101,</t>
+  </si>
+  <si>
+    <t>4,9,4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8,5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,6,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,7,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10,8,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,8,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,10,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103,</t>
+  </si>
+  <si>
+    <t>104,</t>
+  </si>
+  <si>
+    <t>105,</t>
+  </si>
+  <si>
+    <t>106,</t>
+  </si>
+  <si>
+    <t>107,</t>
+  </si>
+  <si>
+    <t>108,</t>
+  </si>
+  <si>
+    <t>109,</t>
+  </si>
+  <si>
+    <t>110,</t>
+  </si>
+  <si>
+    <t>111,</t>
+  </si>
+  <si>
+    <t>112,</t>
+  </si>
+  <si>
+    <t>113,</t>
+  </si>
+  <si>
+    <t>114,</t>
+  </si>
+  <si>
+    <t>115,</t>
+  </si>
+  <si>
+    <t>116,</t>
+  </si>
+  <si>
+    <t>117,</t>
+  </si>
+  <si>
+    <t>118,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119,</t>
+  </si>
+  <si>
+    <t>120,</t>
+  </si>
+  <si>
+    <t>121,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134,</t>
+  </si>
+  <si>
+    <t>135,</t>
+  </si>
+  <si>
+    <t>136,</t>
+  </si>
+  <si>
+    <t>137,</t>
+  </si>
+  <si>
+    <t>138,</t>
+  </si>
+  <si>
+    <t>139,</t>
+  </si>
+  <si>
+    <t>140,</t>
+  </si>
+  <si>
+    <t>141,</t>
+  </si>
+  <si>
+    <t>142,</t>
+  </si>
+  <si>
+    <t>143,</t>
+  </si>
+  <si>
+    <t>144,</t>
+  </si>
+  <si>
+    <t>145,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146,</t>
+  </si>
+  <si>
+    <t>147,</t>
+  </si>
+  <si>
+    <t>148,</t>
+  </si>
+  <si>
+    <t>149,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>154,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed|速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path|一网打尽时路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8,15,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10,17,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>|辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish_form|鱼组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,</t>
-  </si>
-  <si>
-    <t>7,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>9,</t>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>12,</t>
-  </si>
-  <si>
-    <t>90,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,</t>
-  </si>
-  <si>
-    <t>15,</t>
-  </si>
-  <si>
-    <t>16,</t>
-  </si>
-  <si>
-    <t>17,</t>
-  </si>
-  <si>
-    <t>18,</t>
-  </si>
-  <si>
-    <t>19,</t>
-  </si>
-  <si>
-    <t>20,</t>
-  </si>
-  <si>
-    <t>21,</t>
-  </si>
-  <si>
-    <t>22,</t>
-  </si>
-  <si>
-    <t>23,</t>
-  </si>
-  <si>
-    <t>24,</t>
-  </si>
-  <si>
-    <t>25,</t>
-  </si>
-  <si>
-    <t>26,</t>
-  </si>
-  <si>
-    <t>27,</t>
-  </si>
-  <si>
-    <t>28,</t>
-  </si>
-  <si>
-    <t>29,</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>31,</t>
-  </si>
-  <si>
-    <t>32,</t>
-  </si>
-  <si>
-    <t>33,</t>
-  </si>
-  <si>
-    <t>34,</t>
-  </si>
-  <si>
-    <t>35,</t>
-  </si>
-  <si>
-    <t>36,</t>
-  </si>
-  <si>
-    <t>37,</t>
-  </si>
-  <si>
-    <t>38,</t>
-  </si>
-  <si>
-    <t>39,</t>
-  </si>
-  <si>
-    <t>40,</t>
-  </si>
-  <si>
-    <t>41,</t>
-  </si>
-  <si>
-    <t>42,</t>
-  </si>
-  <si>
-    <t>43,</t>
-  </si>
-  <si>
-    <t>44,</t>
-  </si>
-  <si>
-    <t>45,</t>
-  </si>
-  <si>
-    <t>46,</t>
-  </si>
-  <si>
-    <t>47,</t>
-  </si>
-  <si>
-    <t>48,</t>
-  </si>
-  <si>
-    <t>49,</t>
-  </si>
-  <si>
-    <t>50,</t>
-  </si>
-  <si>
-    <t>51,</t>
-  </si>
-  <si>
-    <t>52,</t>
-  </si>
-  <si>
-    <t>53,</t>
-  </si>
-  <si>
-    <t>54,</t>
-  </si>
-  <si>
-    <t>55,</t>
-  </si>
-  <si>
-    <t>56,</t>
-  </si>
-  <si>
-    <t>57,</t>
-  </si>
-  <si>
-    <t>58,</t>
-  </si>
-  <si>
-    <t>59,</t>
-  </si>
-  <si>
-    <t>60,</t>
-  </si>
-  <si>
-    <t>61,</t>
-  </si>
-  <si>
-    <t>62,</t>
-  </si>
-  <si>
-    <t>63,</t>
-  </si>
-  <si>
-    <t>64,</t>
-  </si>
-  <si>
-    <t>65,</t>
-  </si>
-  <si>
-    <t>66,</t>
-  </si>
-  <si>
-    <t>67,</t>
-  </si>
-  <si>
-    <t>68,</t>
-  </si>
-  <si>
-    <t>69,</t>
-  </si>
-  <si>
-    <t>70,</t>
-  </si>
-  <si>
-    <t>71,</t>
-  </si>
-  <si>
-    <t>72,</t>
-  </si>
-  <si>
-    <t>73,</t>
-  </si>
-  <si>
-    <t>74,</t>
-  </si>
-  <si>
-    <t>75,</t>
-  </si>
-  <si>
-    <t>76,</t>
-  </si>
-  <si>
-    <t>77,</t>
-  </si>
-  <si>
-    <t>78,</t>
-  </si>
-  <si>
-    <t>79,</t>
-  </si>
-  <si>
-    <t>80,</t>
-  </si>
-  <si>
-    <t>81,</t>
-  </si>
-  <si>
-    <t>82,</t>
-  </si>
-  <si>
-    <t>83,</t>
-  </si>
-  <si>
-    <t>84,</t>
-  </si>
-  <si>
-    <t>85,</t>
-  </si>
-  <si>
-    <t>86,</t>
-  </si>
-  <si>
-    <t>87,</t>
-  </si>
-  <si>
-    <t>88,</t>
-  </si>
-  <si>
-    <t>89,</t>
-  </si>
-  <si>
-    <t>90,</t>
-  </si>
-  <si>
-    <t>91,</t>
-  </si>
-  <si>
-    <t>92,</t>
-  </si>
-  <si>
-    <t>93,</t>
-  </si>
-  <si>
-    <t>94,</t>
-  </si>
-  <si>
-    <t>95,</t>
-  </si>
-  <si>
-    <t>96,</t>
-  </si>
-  <si>
-    <t>97,</t>
-  </si>
-  <si>
-    <t>98,</t>
-  </si>
-  <si>
-    <t>99,</t>
-  </si>
-  <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>101,</t>
-  </si>
-  <si>
-    <t>4,9,4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,8,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,6,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8,7,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,10,8,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8,4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,8,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,10,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,10,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,8,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,10,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103,</t>
-  </si>
-  <si>
-    <t>104,</t>
-  </si>
-  <si>
-    <t>105,</t>
-  </si>
-  <si>
-    <t>106,</t>
-  </si>
-  <si>
-    <t>107,</t>
-  </si>
-  <si>
-    <t>108,</t>
-  </si>
-  <si>
-    <t>109,</t>
-  </si>
-  <si>
-    <t>110,</t>
-  </si>
-  <si>
-    <t>111,</t>
-  </si>
-  <si>
-    <t>112,</t>
-  </si>
-  <si>
-    <t>113,</t>
-  </si>
-  <si>
-    <t>114,</t>
-  </si>
-  <si>
-    <t>115,</t>
-  </si>
-  <si>
-    <t>116,</t>
-  </si>
-  <si>
-    <t>117,</t>
-  </si>
-  <si>
-    <t>118,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119,</t>
-  </si>
-  <si>
-    <t>120,</t>
-  </si>
-  <si>
-    <t>121,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>132,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>134,</t>
-  </si>
-  <si>
-    <t>135,</t>
-  </si>
-  <si>
-    <t>136,</t>
-  </si>
-  <si>
-    <t>137,</t>
-  </si>
-  <si>
-    <t>138,</t>
-  </si>
-  <si>
-    <t>139,</t>
-  </si>
-  <si>
-    <t>140,</t>
-  </si>
-  <si>
-    <t>141,</t>
-  </si>
-  <si>
-    <t>142,</t>
-  </si>
-  <si>
-    <t>143,</t>
-  </si>
-  <si>
-    <t>144,</t>
-  </si>
-  <si>
-    <t>145,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>146,</t>
-  </si>
-  <si>
-    <t>147,</t>
-  </si>
-  <si>
-    <t>148,</t>
-  </si>
-  <si>
-    <t>149,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>151,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>152,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>153,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>154,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>155,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>156,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed|速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path|一网打尽时路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,8,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,9,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,9,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,10,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,8,15,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,10,17,24</t>
+    <t>10,30,160,</t>
+  </si>
+  <si>
+    <t>award_id|奖励组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,40,140,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>|辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,30,160,</t>
-  </si>
-  <si>
-    <t>award_id|奖励组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,40,140,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1718,35 +1715,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="profit"/>
-      <sheetName val="random_wave"/>
-      <sheetName val="wave"/>
-      <sheetName val="image_type_cfg"/>
-      <sheetName val="image_cfg"/>
-      <sheetName val="laser"/>
-      <sheetName val="gun"/>
-      <sheetName val="match_award"/>
-      <sheetName val="ue_event_map"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2015,8 +1983,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="M146" sqref="M146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2026,7 +1994,7 @@
     <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="29.5" customWidth="1"/>
     <col min="12" max="12" width="8.625"/>
-    <col min="17" max="17" width="8.625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="20" width="8.625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2037,19 +2005,19 @@
         <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>155</v>
@@ -2061,22 +2029,22 @@
         <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>157</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2096,13 +2064,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2">
@@ -2135,10 +2103,10 @@
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q3,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R3,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S3,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T3,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U3,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V3,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W3,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2167,13 +2135,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H4">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q4,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R4,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S4,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T4,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U4,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V4,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W4,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2202,13 +2170,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H5">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q5,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R5,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S5,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T5,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U5,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V5,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W5,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2237,10 +2205,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H6">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q6,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R6,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S6,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T6,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U6,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V6,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W6,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2269,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H7">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q7,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R7,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S7,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T7,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U7,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V7,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W7,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2301,13 +2269,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -2336,13 +2304,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2371,13 +2339,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -2406,13 +2374,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2441,13 +2409,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -2476,13 +2444,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -2511,13 +2479,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -2546,13 +2514,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -2581,13 +2549,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -2616,13 +2584,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -2651,13 +2619,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -2686,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H19">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q19,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R19,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S19,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T19,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U19,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V19,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W19,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2715,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H20">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q20,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R20,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S20,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T20,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U20,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V20,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W20,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2744,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H21">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q21,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R21,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S21,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T21,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U21,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V21,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W21,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2773,10 +2741,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q22,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R22,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S22,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T22,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U22,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V22,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W22,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2802,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q23,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R23,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S23,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T23,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U23,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V23,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W23,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2831,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q24,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R24,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S24,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T24,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U24,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V24,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W24,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2860,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H25">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q25,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R25,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S25,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T25,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U25,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V25,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W25,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2886,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q26,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R26,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S26,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T26,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U26,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V26,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W26,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2912,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q27,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R27,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S27,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T27,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U27,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V27,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W27,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2938,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H28">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q28,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R28,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S28,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T28,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U28,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V28,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W28,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2964,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H29">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q29,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R29,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S29,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T29,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U29,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V29,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W29,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -2990,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H30">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q30,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R30,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S30,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T30,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U30,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V30,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W30,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3016,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H31">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q31,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R31,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S31,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T31,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U31,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V31,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W31,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3042,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H32">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q32,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R32,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S32,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T32,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U32,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V32,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W32,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3068,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q33,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R33,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S33,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T33,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U33,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V33,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W33,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3094,10 +3062,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H34">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q34,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R34,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S34,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T34,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U34,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V34,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W34,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3123,10 +3091,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H35">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q35,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R35,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S35,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T35,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U35,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V35,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W35,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3152,10 +3120,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H36">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q36,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R36,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S36,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T36,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U36,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V36,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W36,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3181,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q37,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R37,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S37,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T37,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U37,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V37,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W37,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3210,10 +3178,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H38">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q38,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R38,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S38,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T38,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U38,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V38,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W38,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3239,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H39">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q39,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R39,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S39,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T39,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U39,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V39,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W39,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3268,10 +3236,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H40">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q40,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R40,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S40,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T40,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U40,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V40,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W40,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3297,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H41">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q41,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R41,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S41,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T41,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U41,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V41,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W41,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3326,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H42">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q42,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R42,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S42,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T42,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U42,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V42,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W42,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3355,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H43">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q43,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R43,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S43,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T43,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U43,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V43,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W43,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3384,10 +3352,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H44">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q44,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R44,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S44,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T44,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U44,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V44,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W44,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3413,10 +3381,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H45">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q45,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R45,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S45,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T45,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U45,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V45,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W45,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3442,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H46">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q46,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R46,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S46,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T46,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U46,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V46,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W46,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3468,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H47">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q47,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R47,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S47,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T47,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U47,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V47,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W47,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3494,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H48">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q48,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R48,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S48,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T48,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U48,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V48,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W48,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3520,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H49">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q49,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R49,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S49,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T49,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U49,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V49,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W49,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3546,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H50">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q50,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R50,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S50,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T50,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U50,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V50,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W50,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3572,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H51">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q51,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R51,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S51,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T51,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U51,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V51,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W51,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3598,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H52">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q52,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R52,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S52,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T52,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U52,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V52,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W52,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3624,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H53">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q53,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R53,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S53,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T53,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U53,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V53,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W53,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3650,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H54">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q54,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R54,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S54,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T54,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U54,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V54,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W54,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3676,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H55">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q55,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R55,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S55,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T55,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U55,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V55,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W55,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3702,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H56">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q56,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R56,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S56,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T56,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U56,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V56,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W56,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3728,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H57">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q57,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R57,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S57,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T57,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U57,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V57,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W57,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3754,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H58">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q58,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R58,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S58,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T58,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U58,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V58,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W58,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3780,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H59">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q59,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R59,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S59,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T59,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U59,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V59,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W59,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3806,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H60">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q60,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R60,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S60,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T60,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U60,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V60,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W60,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3832,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H61">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q61,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R61,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S61,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T61,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U61,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V61,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W61,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3858,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H62">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q62,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R62,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S62,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T62,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U62,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V62,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W62,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3884,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H63">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q63,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R63,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S63,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T63,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U63,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V63,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W63,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3910,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H64">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q64,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R64,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S64,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T64,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U64,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V64,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W64,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3936,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H65">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q65,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R65,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S65,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T65,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U65,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V65,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W65,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3962,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H66">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q66,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R66,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S66,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T66,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U66,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V66,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W66,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -3988,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H67">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q67,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R67,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S67,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T67,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U67,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V67,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W67,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4014,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H68">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q68,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R68,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S68,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T68,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U68,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V68,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W68,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4040,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H69">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q69,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R69,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S69,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T69,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U69,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V69,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W69,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4066,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H70">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q70,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R70,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S70,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T70,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U70,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V70,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W70,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4092,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H71">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q71,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R71,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S71,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T71,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U71,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V71,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W71,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4118,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H72">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q72,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R72,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S72,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T72,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U72,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V72,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W72,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4144,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H73">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q73,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R73,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S73,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T73,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U73,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V73,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W73,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4170,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H74">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q74,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R74,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S74,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T74,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U74,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V74,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W74,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4196,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H75">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q75,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R75,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S75,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T75,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U75,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V75,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W75,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4222,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H76">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q76,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R76,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S76,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T76,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U76,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V76,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W76,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4248,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H77">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q77,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R77,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S77,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T77,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U77,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V77,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W77,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4274,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H78">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q78,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R78,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S78,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T78,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U78,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V78,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W78,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4300,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H79">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q79,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R79,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S79,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T79,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U79,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V79,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W79,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4326,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H80">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q80,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R80,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S80,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T80,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U80,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V80,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W80,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4352,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H81">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q81,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R81,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S81,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T81,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U81,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V81,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W81,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4378,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H82">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q82,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R82,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S82,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T82,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U82,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V82,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W82,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4404,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H83">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q83,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R83,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S83,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T83,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U83,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V83,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W83,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4430,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H84">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q84,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R84,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S84,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T84,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U84,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V84,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W84,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4456,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H85">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q85,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R85,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S85,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T85,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U85,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V85,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W85,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4482,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H86">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q86,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R86,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S86,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T86,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U86,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V86,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W86,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4508,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H87">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q87,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R87,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S87,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T87,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U87,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V87,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W87,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4534,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H88">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q88,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R88,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S88,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T88,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U88,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V88,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W88,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4560,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H89">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q89,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R89,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S89,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T89,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U89,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V89,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W89,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4586,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H90">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q90,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R90,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S90,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T90,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U90,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V90,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W90,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4612,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H91">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q91,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R91,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S91,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T91,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U91,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V91,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W91,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4638,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H92">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q92,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R92,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S92,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T92,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U92,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V92,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W92,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4664,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H93">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q93,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R93,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S93,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T93,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U93,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V93,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W93,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4690,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H94">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q94,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R94,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S94,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T94,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U94,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V94,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W94,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4716,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H95">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q95,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R95,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S95,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T95,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U95,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V95,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W95,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4742,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H96">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q96,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R96,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S96,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T96,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U96,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V96,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W96,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4768,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H97">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q97,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R97,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S97,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T97,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U97,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V97,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W97,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4794,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H98">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q98,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R98,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S98,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T98,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U98,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V98,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W98,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4820,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H99">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q99,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R99,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S99,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T99,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U99,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V99,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W99,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4846,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H100">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q100,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R100,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S100,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T100,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U100,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V100,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W100,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4872,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H101">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q101,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R101,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S101,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T101,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U101,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V101,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W101,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4898,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H102">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q102,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R102,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S102,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T102,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U102,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V102,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W102,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4924,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H103">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q103,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R103,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S103,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T103,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U103,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V103,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W103,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4950,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H104">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q104,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R104,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S104,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T104,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U104,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V104,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W104,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -4976,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H105">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q105,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R105,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S105,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T105,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U105,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V105,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W105,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5002,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H106">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q106,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R106,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S106,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T106,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U106,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V106,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W106,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5028,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H107">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q107,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R107,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S107,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T107,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U107,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V107,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W107,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5054,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H108">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q108,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R108,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S108,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T108,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U108,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V108,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W108,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5080,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H109">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q109,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R109,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S109,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T109,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U109,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V109,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W109,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5106,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H110">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q110,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R110,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S110,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T110,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U110,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V110,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W110,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5132,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H111">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q111,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R111,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S111,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T111,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U111,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V111,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W111,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5158,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H112">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q112,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R112,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S112,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T112,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U112,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V112,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W112,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5176,7 +5144,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5184,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H113">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q113,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R113,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S113,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T113,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U113,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V113,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W113,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5202,7 +5170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5210,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H114">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q114,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R114,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S114,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T114,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U114,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V114,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W114,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5228,7 +5196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5236,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H115">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q115,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R115,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S115,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T115,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U115,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V115,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W115,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5254,7 +5222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5262,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H116">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q116,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R116,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S116,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T116,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U116,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V116,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W116,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5280,7 +5248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5288,15 +5256,15 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H117">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q117,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R117,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S117,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T117,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U117,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V117,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W117,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I117">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q117,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R117,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S117,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T117,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U117,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V117,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W117,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="J117" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q117,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R117,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S117,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T117,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U117,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V117,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W117,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5305,8 +5273,14 @@
       <c r="Q117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117">
+        <v>9</v>
+      </c>
+      <c r="S117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5314,15 +5288,15 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H118">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q118,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R118,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S118,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T118,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U118,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V118,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W118,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I118">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q118,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R118,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S118,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T118,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U118,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V118,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W118,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="J118" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q118,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R118,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S118,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T118,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U118,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V118,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W118,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5331,8 +5305,14 @@
       <c r="Q118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118">
+        <v>8</v>
+      </c>
+      <c r="S118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5340,15 +5320,15 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H119">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q119,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R119,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S119,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T119,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U119,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V119,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W119,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I119">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q119,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R119,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S119,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T119,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U119,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V119,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W119,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J119" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q119,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R119,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S119,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T119,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U119,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V119,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W119,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5357,8 +5337,14 @@
       <c r="Q119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R119">
+        <v>7</v>
+      </c>
+      <c r="S119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5366,15 +5352,15 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H120">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q120,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R120,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S120,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T120,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U120,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V120,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W120,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I120">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q120,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R120,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S120,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T120,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U120,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V120,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W120,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J120" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q120,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R120,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S120,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T120,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U120,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V120,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W120,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5383,8 +5369,14 @@
       <c r="Q120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120">
+        <v>8</v>
+      </c>
+      <c r="S120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5392,15 +5384,15 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H121">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q121,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R121,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S121,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T121,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U121,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V121,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W121,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="I121">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q121,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R121,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S121,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T121,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U121,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V121,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W121,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J121" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q121,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R121,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S121,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T121,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U121,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V121,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W121,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5409,8 +5401,14 @@
       <c r="Q121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R121">
+        <v>10</v>
+      </c>
+      <c r="S121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5418,15 +5416,15 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H122">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q122,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R122,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S122,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T122,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U122,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V122,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W122,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I122">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q122,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R122,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S122,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T122,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U122,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V122,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W122,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="J122" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q122,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R122,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S122,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T122,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U122,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V122,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W122,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5435,8 +5433,14 @@
       <c r="Q122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122">
+        <v>8</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5444,18 +5448,18 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G123" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H123">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q123,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R123,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S123,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T123,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U123,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V123,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W123,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="I123">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q123,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R123,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S123,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T123,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U123,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V123,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W123,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="J123" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q123,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R123,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S123,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T123,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U123,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V123,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W123,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5464,8 +5468,14 @@
       <c r="Q123">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123">
+        <v>8</v>
+      </c>
+      <c r="S123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5473,18 +5483,18 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H124">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q124,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R124,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S124,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T124,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U124,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V124,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W124,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I124">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q124,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R124,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S124,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T124,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U124,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V124,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W124,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="J124" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q124,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R124,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S124,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T124,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U124,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V124,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W124,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5493,8 +5503,14 @@
       <c r="Q124">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124">
+        <v>9</v>
+      </c>
+      <c r="S124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5502,18 +5518,18 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G125" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H125">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q125,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R125,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S125,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T125,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U125,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V125,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W125,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="I125">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q125,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R125,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S125,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T125,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U125,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V125,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W125,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="J125" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q125,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R125,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S125,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T125,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U125,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V125,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W125,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5522,8 +5538,14 @@
       <c r="Q125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125">
+        <v>10</v>
+      </c>
+      <c r="S125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5531,18 +5553,18 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G126" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H126">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q126,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R126,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S126,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T126,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U126,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V126,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W126,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="I126">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q126,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R126,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S126,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T126,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U126,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V126,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W126,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="J126" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q126,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R126,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S126,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T126,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U126,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V126,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W126,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5551,8 +5573,14 @@
       <c r="Q126">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126">
+        <v>10</v>
+      </c>
+      <c r="S126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5560,18 +5588,18 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G127" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H127">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q127,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R127,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S127,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T127,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U127,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V127,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W127,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="I127">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q127,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R127,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S127,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T127,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U127,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V127,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W127,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="J127" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q127,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R127,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S127,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T127,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U127,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V127,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W127,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5580,8 +5608,14 @@
       <c r="Q127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R127">
+        <v>5</v>
+      </c>
+      <c r="S127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5589,18 +5623,18 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H128">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q128,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R128,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S128,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T128,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U128,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V128,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W128,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="I128">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q128,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R128,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S128,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T128,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U128,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V128,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W128,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="J128" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q128,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R128,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S128,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T128,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U128,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V128,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W128,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5609,8 +5643,17 @@
       <c r="Q128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="S128">
+        <v>8</v>
+      </c>
+      <c r="T128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5618,18 +5661,18 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G129" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H129">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q129,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R129,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S129,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T129,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U129,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V129,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W129,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="I129">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q129,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R129,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S129,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T129,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U129,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V129,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W129,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="J129" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q129,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R129,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S129,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T129,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U129,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V129,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W129,use_fish!A:A,use_fish!J:J),0),)</f>
@@ -5638,8 +5681,17 @@
       <c r="Q129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129">
+        <v>5</v>
+      </c>
+      <c r="S129">
+        <v>10</v>
+      </c>
+      <c r="T129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5647,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H130">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q130,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R130,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S130,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T130,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U130,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V130,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W130,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5665,7 +5717,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5673,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H131">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q131,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R131,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S131,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T131,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U131,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V131,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W131,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5691,7 +5743,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5699,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H132">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q132,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R132,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S132,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T132,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U132,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V132,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W132,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5717,7 +5769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5725,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H133">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q133,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R133,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S133,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T133,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U133,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V133,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W133,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5743,7 +5795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5751,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H134">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q134,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R134,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S134,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T134,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U134,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V134,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W134,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5769,7 +5821,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5777,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H135">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q135,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R135,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S135,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T135,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U135,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V135,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W135,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5795,7 +5847,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5803,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H136">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q136,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R136,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S136,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T136,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U136,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V136,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W136,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5821,7 +5873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5829,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H137">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q137,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R137,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S137,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T137,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U137,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V137,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W137,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5847,7 +5899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5855,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H138">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q138,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R138,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S138,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T138,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U138,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V138,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W138,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5873,7 +5925,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5881,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H139">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q139,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R139,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S139,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T139,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U139,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V139,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W139,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5899,7 +5951,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5907,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H140">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q140,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R140,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S140,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T140,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U140,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V140,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W140,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5925,7 +5977,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5933,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H141">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q141,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R141,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S141,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T141,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U141,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V141,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W141,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5951,7 +6003,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5959,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H142">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q142,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R142,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S142,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T142,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U142,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V142,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W142,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -5977,7 +6029,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5985,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H143">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q143,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R143,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S143,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T143,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U143,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V143,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W143,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6003,7 +6055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6011,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H144">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q144,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R144,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S144,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T144,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U144,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V144,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W144,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6037,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H145">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q145,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R145,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S145,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T145,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U145,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V145,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W145,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6063,18 +6115,16 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H146">
         <v>540</v>
       </c>
-      <c r="I146" t="e">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(R146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(S146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(T146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(U146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(V146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(W146,#REF!,#REF!),0),)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J146" s="3" t="e">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(R146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(S146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(T146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(U146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(V146,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(W146,#REF!,#REF!),0),)</f>
-        <v>#REF!</v>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <v>0</v>
       </c>
       <c r="K146" t="s">
         <v>108</v>
@@ -6091,18 +6141,16 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H147">
         <v>540</v>
       </c>
-      <c r="I147" t="e">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(R147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(S147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(T147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(U147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(V147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(W147,#REF!,#REF!),0),)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J147" s="3" t="e">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(R147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(S147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(T147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(U147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(V147,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(W147,#REF!,#REF!),0),)</f>
-        <v>#REF!</v>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0</v>
       </c>
       <c r="K147" t="s">
         <v>108</v>
@@ -6119,18 +6167,16 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H148">
         <v>540</v>
       </c>
-      <c r="I148" t="e">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(R148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(S148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(T148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(U148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(V148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(W148,#REF!,#REF!),0),)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J148" s="3" t="e">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(R148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(S148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(T148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(U148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(V148,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(W148,#REF!,#REF!),0),)</f>
-        <v>#REF!</v>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0</v>
       </c>
       <c r="K148" t="s">
         <v>108</v>
@@ -6147,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H149">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q149,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R149,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S149,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T149,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U149,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V149,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W149,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6173,17 +6219,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="J150" s="3" t="e">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q150,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(R150,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(S150,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(T150,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(U150,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(V150,#REF!,#REF!),0),_xlfn.IFNA(LOOKUP(W150,#REF!,#REF!),0),)</f>
-        <v>#REF!</v>
+        <v>346</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
       </c>
       <c r="Q150">
         <v>123</v>
@@ -6197,10 +6242,10 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H151">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q151,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R151,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S151,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T151,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U151,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V151,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W151,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6226,10 +6271,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H152">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q152,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R152,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S152,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T152,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U152,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V152,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W152,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6255,10 +6300,10 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H153">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q153,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R153,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S153,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T153,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U153,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V153,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W153,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6284,10 +6329,10 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H154">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q154,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R154,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S154,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T154,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U154,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V154,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W154,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6313,10 +6358,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H155">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q155,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R155,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S155,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T155,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U155,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V155,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W155,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6342,10 +6387,10 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H156">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q156,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R156,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S156,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T156,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U156,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V156,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W156,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6371,10 +6416,10 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E157" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H157">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q157,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R157,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S157,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T157,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U157,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V157,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W157,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6400,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E158" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H158">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q158,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R158,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S158,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T158,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U158,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V158,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W158,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6429,10 +6474,10 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E159" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H159">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q159,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R159,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S159,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T159,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U159,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V159,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W159,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6458,10 +6503,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H160">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q160,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R160,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S160,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T160,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U160,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V160,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W160,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6487,10 +6532,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E161" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H161">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q161,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R161,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S161,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T161,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U161,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V161,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W161,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6516,10 +6561,10 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E162" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H162">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q162,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R162,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S162,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T162,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U162,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V162,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W162,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6545,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H163">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q163,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R163,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S163,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T163,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U163,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V163,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W163,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6571,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H164">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q164,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R164,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S164,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T164,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U164,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V164,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W164,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6597,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H165">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q165,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R165,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S165,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T165,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U165,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V165,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W165,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6623,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H166">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q166,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R166,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S166,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T166,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U166,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V166,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W166,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6649,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H167">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q167,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R167,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S167,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T167,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U167,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V167,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W167,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6675,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H168">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q168,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R168,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S168,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T168,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U168,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V168,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W168,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6701,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H169">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q169,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R169,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S169,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T169,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U169,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V169,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W169,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6727,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H170">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q170,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R170,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S170,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T170,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U170,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V170,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W170,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6753,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H171">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q171,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R171,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S171,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T171,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U171,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V171,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W171,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6779,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H172">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q172,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R172,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S172,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T172,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U172,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V172,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W172,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6805,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H173">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q173,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R173,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S173,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T173,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U173,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V173,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W173,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6831,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H174">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q174,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R174,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S174,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T174,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U174,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V174,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W174,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6857,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H175">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q175,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R175,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S175,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T175,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U175,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V175,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W175,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6883,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H176">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q176,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R176,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S176,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T176,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U176,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V176,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W176,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6909,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H177">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q177,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R177,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S177,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T177,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U177,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V177,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W177,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6935,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H178">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q178,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R178,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S178,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T178,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U178,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V178,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W178,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6961,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H179">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q179,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R179,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S179,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T179,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U179,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V179,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W179,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -6987,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H180">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q180,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R180,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S180,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T180,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U180,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V180,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W180,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -7013,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H181">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q181,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R181,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S181,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T181,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U181,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V181,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W181,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -7039,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H182">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q182,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R182,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S182,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T182,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U182,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V182,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W182,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -7065,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H183">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q183,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R183,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S183,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T183,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U183,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V183,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W183,use_fish!A:A,use_fish!D:D),0),)</f>
@@ -7206,26 +7251,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L3">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7277,8 +7312,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="K150" sqref="A1:M157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10434,7 +10469,7 @@
         <v>150</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E123" si="3">1/D67</f>
+        <f t="shared" ref="E67:E122" si="3">1/D67</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -14020,8 +14055,7 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <f t="shared" si="7"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -14067,8 +14101,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <f t="shared" si="7"/>
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="L143">
         <v>1</v>
@@ -14114,8 +14147,7 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <f t="shared" si="7"/>
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="L144">
         <v>1</v>
@@ -14161,8 +14193,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <f t="shared" si="7"/>
-        <v>425</v>
+        <v>50</v>
       </c>
       <c r="L145">
         <v>1</v>
@@ -14208,8 +14239,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <f t="shared" si="7"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L146">
         <v>1</v>
@@ -14255,8 +14285,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <f t="shared" si="7"/>
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -14302,8 +14331,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <f t="shared" si="7"/>
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="L148">
         <v>1</v>
@@ -14349,8 +14377,7 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <f t="shared" si="7"/>
-        <v>425</v>
+        <v>50</v>
       </c>
       <c r="L149">
         <v>1</v>
